--- a/COVID19 Files/Covid cases in India new.xlsx
+++ b/COVID19 Files/Covid cases in India new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Documents\Python Projects\COVID-19-Data-Analyisis-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Documents\Python Projects\COVID-19-Data-Analyisis-master\COVID19 Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>S. No.</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Name of State / UT</t>
   </si>
   <si>
-    <t>Total Confirmed cases (Including 111 foreign Nationals)</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
     <t>Andaman and Nicobar Islands</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Tamil Nadu</t>
   </si>
   <si>
-    <t>Telengana</t>
-  </si>
-  <si>
     <t>Tripura</t>
   </si>
   <si>
@@ -134,14 +125,38 @@
     <t>West Bengal</t>
   </si>
   <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Cases being reassigned to states</t>
+  </si>
+  <si>
+    <t>Total Confirmed cases</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
     <t>Cured/Discharged/Migrated</t>
+  </si>
+  <si>
+    <t>Active Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +168,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Robotoregular"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Robotoregular"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -221,7 +238,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -237,10 +256,10 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1048575" sqref="F1048575"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -537,7 +556,7 @@
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="104.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -545,557 +564,734 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
         <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F2" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1259</v>
+        <v>3340</v>
       </c>
       <c r="D3" s="2">
-        <v>258</v>
+        <v>3641</v>
       </c>
       <c r="E3" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F4" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>38</v>
+        <v>1955</v>
       </c>
       <c r="D5" s="2">
-        <v>27</v>
+        <v>2642</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>346</v>
+        <v>1972</v>
       </c>
       <c r="D6" s="1">
-        <v>57</v>
+        <v>4926</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>674</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1180</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F8" s="1">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>3108</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>877</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>27741</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>17457</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+        <v>1904</v>
+      </c>
+      <c r="F10" s="1">
+        <v>47102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>3548</v>
+        <v>560</v>
       </c>
       <c r="D11" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>296</v>
+        <v>6103</v>
       </c>
       <c r="D12" s="1">
-        <v>183</v>
+        <v>17430</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+        <v>1560</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>40</v>
+        <v>4750</v>
       </c>
       <c r="D13" s="2">
-        <v>22</v>
+        <v>3952</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1">
+        <v>130</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>546</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>103</v>
+        <v>2427</v>
       </c>
       <c r="D15" s="2">
-        <v>17</v>
+        <v>2914</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>520</v>
+        <v>734</v>
       </c>
       <c r="D16" s="1">
-        <v>198</v>
+        <v>1151</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>482</v>
+        <v>2828</v>
       </c>
       <c r="D17" s="2">
-        <v>355</v>
+        <v>4804</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1351</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1326</v>
+      </c>
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F18" s="1">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>2368</v>
+        <v>594</v>
       </c>
       <c r="D19" s="2">
-        <v>361</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>8590</v>
+        <v>2374</v>
       </c>
       <c r="D20" s="1">
-        <v>1282</v>
+        <v>8388</v>
       </c>
       <c r="E20" s="1">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+        <v>482</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>51935</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>59166</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+        <v>5651</v>
+      </c>
+      <c r="F21" s="2">
+        <v>116752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="D22" s="1">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F22" s="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F23" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F25" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>313</v>
+        <v>1280</v>
       </c>
       <c r="D26" s="1">
-        <v>71</v>
+        <v>3047</v>
       </c>
       <c r="E26" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>2262</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2">
-        <v>669</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>1937</v>
+        <v>881</v>
       </c>
       <c r="D28" s="1">
-        <v>1101</v>
+        <v>2538</v>
       </c>
       <c r="E28" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>1004</v>
+        <v>2762</v>
       </c>
       <c r="D29" s="2">
-        <v>321</v>
+        <v>10467</v>
       </c>
       <c r="E29" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+        <v>313</v>
+      </c>
+      <c r="F29" s="2">
+        <v>13542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F30" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>51</v>
+        <v>21993</v>
       </c>
       <c r="D31" s="2">
-        <v>33</v>
+        <v>27624</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+        <v>576</v>
+      </c>
+      <c r="F31" s="2">
+        <v>50193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>2043</v>
+        <v>2412</v>
       </c>
       <c r="D32" s="1">
-        <v>400</v>
+        <v>3071</v>
       </c>
       <c r="E32" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>578</v>
+      </c>
+      <c r="D33" s="2">
+        <v>556</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>743</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1254</v>
+      </c>
+      <c r="E34" s="1">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5259</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8904</v>
+      </c>
+      <c r="E35" s="2">
+        <v>435</v>
+      </c>
+      <c r="F35" s="2">
+        <v>14598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C33" s="2">
-        <v>697</v>
-      </c>
-      <c r="D33" s="2">
-        <v>109</v>
-      </c>
-      <c r="E33" s="2">
-        <v>20</v>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5261</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6533</v>
+      </c>
+      <c r="E36" s="1">
+        <v>506</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8703</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8703</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19 Files/Covid cases in India new.xlsx
+++ b/COVID19 Files/Covid cases in India new.xlsx
@@ -140,16 +140,16 @@
     <t>Cases being reassigned to states</t>
   </si>
   <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>Cured/Discharged/Migrated</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
     <t>Total Confirmed cases</t>
-  </si>
-  <si>
-    <t>Deaths</t>
-  </si>
-  <si>
-    <t>Cured/Discharged/Migrated</t>
-  </si>
-  <si>
-    <t>Active Cases</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1048575" sqref="F1048575"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -584,16 +584,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <f>F2-(D2+E2)</f>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -603,17 +604,18 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>3340</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3641</v>
-      </c>
-      <c r="E3" s="2">
-        <v>90</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7071</v>
+      <c r="C3" s="1">
+        <f>F3-(D3+E3)</f>
+        <v>12533</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14393</v>
+      </c>
+      <c r="E3" s="1">
+        <v>309</v>
+      </c>
+      <c r="F3" s="1">
+        <v>27235</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -624,16 +626,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>92</v>
+        <f t="shared" ref="C4:C37" si="0">F4-(D4+E4)</f>
+        <v>214</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>99</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,17 +646,18 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>1955</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2642</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4605</v>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>6351</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15536</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,16 +668,17 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>1972</v>
+        <f t="shared" si="0"/>
+        <v>4557</v>
       </c>
       <c r="D6" s="1">
-        <v>4926</v>
+        <v>10685</v>
       </c>
       <c r="E6" s="1">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="F6" s="1">
-        <v>6942</v>
+        <v>15373</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -683,17 +688,18 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <v>303</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>368</v>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D7" s="1">
+        <v>413</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -704,16 +710,17 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>674</v>
+        <f t="shared" si="0"/>
+        <v>810</v>
       </c>
       <c r="D8" s="1">
-        <v>1180</v>
+        <v>3070</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>1864</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,17 +730,18 @@
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="D9" s="1">
+        <v>226</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>57</v>
+      <c r="F9" s="1">
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,16 +752,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>27741</v>
+        <f t="shared" si="0"/>
+        <v>19895</v>
       </c>
       <c r="D10" s="1">
-        <v>17457</v>
+        <v>87692</v>
       </c>
       <c r="E10" s="1">
-        <v>1904</v>
+        <v>3334</v>
       </c>
       <c r="F10" s="1">
-        <v>47102</v>
+        <v>110921</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,17 +772,18 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>560</v>
-      </c>
-      <c r="D11" s="2">
-        <v>96</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>656</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>928</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1428</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2368</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,16 +794,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>6103</v>
+        <f t="shared" si="0"/>
+        <v>10260</v>
       </c>
       <c r="D12" s="1">
-        <v>17430</v>
+        <v>28649</v>
       </c>
       <c r="E12" s="1">
-        <v>1560</v>
+        <v>2032</v>
       </c>
       <c r="F12" s="1">
-        <v>25093</v>
+        <v>40941</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -803,17 +814,18 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>4750</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3952</v>
-      </c>
-      <c r="E13" s="2">
-        <v>130</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8832</v>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>4891</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15394</v>
+      </c>
+      <c r="E13" s="1">
+        <v>297</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20582</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -824,16 +836,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>189</v>
+        <f t="shared" si="0"/>
+        <v>263</v>
       </c>
       <c r="D14" s="1">
-        <v>372</v>
+        <v>908</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
-        <v>569</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -843,17 +856,18 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>2427</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2914</v>
-      </c>
-      <c r="E15" s="2">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5406</v>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>4092</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5895</v>
+      </c>
+      <c r="E15" s="1">
+        <v>169</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,16 +878,17 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>734</v>
+        <f t="shared" si="0"/>
+        <v>1347</v>
       </c>
       <c r="D16" s="1">
-        <v>1151</v>
+        <v>2243</v>
       </c>
       <c r="E16" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
-        <v>1895</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,17 +898,18 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
-        <v>2828</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4804</v>
-      </c>
-      <c r="E17" s="2">
-        <v>102</v>
-      </c>
-      <c r="F17" s="2">
-        <v>7734</v>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>20887</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14716</v>
+      </c>
+      <c r="E17" s="1">
+        <v>613</v>
+      </c>
+      <c r="F17" s="1">
+        <v>36216</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,16 +920,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>1351</v>
+        <f t="shared" si="0"/>
+        <v>3446</v>
       </c>
       <c r="D18" s="1">
-        <v>1326</v>
+        <v>3963</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1">
-        <v>2697</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,17 +940,18 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>594</v>
-      </c>
-      <c r="D19" s="2">
-        <v>92</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D19" s="1">
+        <v>928</v>
+      </c>
+      <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
-        <v>687</v>
+      <c r="F19" s="1">
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,16 +962,17 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2374</v>
+        <f t="shared" si="0"/>
+        <v>3878</v>
       </c>
       <c r="D20" s="1">
-        <v>8388</v>
+        <v>12679</v>
       </c>
       <c r="E20" s="1">
-        <v>482</v>
+        <v>644</v>
       </c>
       <c r="F20" s="1">
-        <v>11244</v>
+        <v>17201</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,17 +982,18 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>51935</v>
-      </c>
-      <c r="D21" s="2">
-        <v>59166</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5651</v>
-      </c>
-      <c r="F21" s="2">
-        <v>116752</v>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>99499</v>
+      </c>
+      <c r="D21" s="1">
+        <v>136985</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10116</v>
+      </c>
+      <c r="F21" s="1">
+        <v>246600</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -984,16 +1004,17 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>360</v>
+        <f t="shared" si="0"/>
+        <v>750</v>
       </c>
       <c r="D22" s="1">
-        <v>192</v>
+        <v>843</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>552</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,17 +1024,18 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44</v>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D23" s="1">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,16 +1046,17 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>121</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1043,17 +1066,18 @@
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2">
-        <v>90</v>
-      </c>
-      <c r="D25" s="2">
-        <v>103</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="D25" s="1">
+        <v>313</v>
+      </c>
+      <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
-        <v>193</v>
+      <c r="F25" s="1">
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1064,16 +1088,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>1280</v>
+        <f t="shared" si="0"/>
+        <v>4105</v>
       </c>
       <c r="D26" s="1">
-        <v>3047</v>
+        <v>8360</v>
       </c>
       <c r="E26" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1">
-        <v>4338</v>
+        <v>12526</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,17 +1108,18 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
-        <v>129</v>
-      </c>
-      <c r="D27" s="2">
-        <v>109</v>
-      </c>
-      <c r="E27" s="2">
-        <v>7</v>
-      </c>
-      <c r="F27" s="2">
-        <v>245</v>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>629</v>
+      </c>
+      <c r="D27" s="1">
+        <v>690</v>
+      </c>
+      <c r="E27" s="1">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1337</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1104,16 +1130,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>881</v>
+        <f t="shared" si="0"/>
+        <v>2352</v>
       </c>
       <c r="D28" s="1">
-        <v>2538</v>
+        <v>5040</v>
       </c>
       <c r="E28" s="1">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1">
-        <v>3497</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1123,17 +1150,18 @@
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
-        <v>2762</v>
-      </c>
-      <c r="D29" s="2">
-        <v>10467</v>
-      </c>
-      <c r="E29" s="2">
-        <v>313</v>
-      </c>
-      <c r="F29" s="2">
-        <v>13542</v>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>5376</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17869</v>
+      </c>
+      <c r="E29" s="1">
+        <v>503</v>
+      </c>
+      <c r="F29" s="1">
+        <v>23748</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1144,16 +1172,17 @@
         <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>70</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,17 +1192,18 @@
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2">
-        <v>21993</v>
-      </c>
-      <c r="D31" s="2">
-        <v>27624</v>
-      </c>
-      <c r="E31" s="2">
-        <v>576</v>
-      </c>
-      <c r="F31" s="2">
-        <v>50193</v>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>46413</v>
+      </c>
+      <c r="D31" s="1">
+        <v>85915</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1898</v>
+      </c>
+      <c r="F31" s="1">
+        <v>134226</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1184,16 +1214,17 @@
         <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>2412</v>
+        <f t="shared" si="0"/>
+        <v>12135</v>
       </c>
       <c r="D32" s="1">
-        <v>3071</v>
+        <v>20919</v>
       </c>
       <c r="E32" s="1">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="F32" s="1">
-        <v>5675</v>
+        <v>33402</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1203,17 +1234,18 @@
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2">
-        <v>578</v>
-      </c>
-      <c r="D33" s="2">
-        <v>556</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1135</v>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1375</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1949</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1224,16 +1256,17 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>743</v>
+        <f t="shared" si="0"/>
+        <v>653</v>
       </c>
       <c r="D34" s="1">
-        <v>1254</v>
+        <v>2718</v>
       </c>
       <c r="E34" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1">
-        <v>2023</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,17 +1276,18 @@
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="2">
-        <v>5259</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8904</v>
-      </c>
-      <c r="E35" s="2">
-        <v>435</v>
-      </c>
-      <c r="F35" s="2">
-        <v>14598</v>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>11490</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22689</v>
+      </c>
+      <c r="E35" s="1">
+        <v>913</v>
+      </c>
+      <c r="F35" s="1">
+        <v>35092</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1264,16 +1298,17 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>5261</v>
+        <f t="shared" si="0"/>
+        <v>9588</v>
       </c>
       <c r="D36" s="1">
-        <v>6533</v>
+        <v>17959</v>
       </c>
       <c r="E36" s="1">
-        <v>506</v>
+        <v>906</v>
       </c>
       <c r="F36" s="1">
-        <v>12300</v>
+        <v>28453</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1281,17 +1316,18 @@
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2">
-        <v>8703</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>3024</v>
+      </c>
+      <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="2">
-        <v>8703</v>
+      <c r="F37" s="1">
+        <v>3024</v>
       </c>
     </row>
   </sheetData>
